--- a/finProduct/Timesheet.xlsx
+++ b/finProduct/Timesheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet_Shashank" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Mon</t>
   </si>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>InProgress</t>
+  </si>
+  <si>
+    <t>Research for importing class  from another direct
+-ory in jupyter notebook</t>
   </si>
 </sst>
 </file>
@@ -195,14 +199,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,17 +503,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
+      <c r="A1" s="9">
         <v>43191</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -543,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,15 +564,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -880,7 +884,7 @@
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="1"/>
@@ -915,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,13 +931,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -946,7 +950,7 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="1"/>
@@ -955,7 +959,7 @@
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="1"/>
@@ -964,7 +968,7 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1"/>

--- a/finProduct/Timesheet.xlsx
+++ b/finProduct/Timesheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaskhan\AnacondaProjects\mokshtech-master\finProduct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASK Computers\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Timesheet_Shashank" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Mon</t>
   </si>
@@ -112,6 +112,28 @@
   <si>
     <t>Research for importing class  from another direct
 -ory in jupyter notebook</t>
+  </si>
+  <si>
+    <t>RNN understanding and implementation</t>
+  </si>
+  <si>
+    <t>1+1+2</t>
+  </si>
+  <si>
+    <t>enhancing code with different k units , batch size 
+and implemetation with testsplit</t>
+  </si>
+  <si>
+    <t>more work on  implemetation with testsplit and including all parameters of dataset</t>
+  </si>
+  <si>
+    <t>Modularising RNN implemetation and bug fixing</t>
+  </si>
+  <si>
+    <t>bug fixing</t>
+  </si>
+  <si>
+    <t>Understanding Time series models</t>
   </si>
 </sst>
 </file>
@@ -490,13 +512,13 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
@@ -714,9 +736,13 @@
       <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -725,20 +751,30 @@
       <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -747,9 +783,13 @@
       <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -758,9 +798,13 @@
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -769,9 +813,13 @@
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -892,7 +940,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1">
         <f>SUM(E2:E31)</f>
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
